--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.041221-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.041221-2.xlsx_with_dialog_acts.xlsx
@@ -1151,12 +1151,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2111,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2351,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2879,12 +2879,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3199,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4279,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4319,12 +4319,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6275,12 +6275,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7835,12 +7835,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
